--- a/data/case1/20/V1_3.xlsx
+++ b/data/case1/20/V1_3.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.9999999932880459</v>
+        <v>0.99999999926525518</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.99371038712747195</v>
+        <v>0.99288149097986911</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.9695023917735619</v>
+        <v>0.9625255804857924</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.95753729277739075</v>
+        <v>0.95093232376826742</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.94591688072699798</v>
+        <v>0.93969686501075222</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.91493757209576043</v>
+        <v>0.91213382605079274</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.91060893953064559</v>
+        <v>0.90898765334873677</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.90400368199767722</v>
+        <v>0.90493821789300988</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.89701593711713268</v>
+        <v>0.89835876166267603</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.89094023044030402</v>
+        <v>0.89269886124648834</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.89002590681419036</v>
+        <v>0.89193047208957876</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.88854217291407045</v>
+        <v>0.89072443754453545</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.88418393761359293</v>
+        <v>0.88683435134348332</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.88335800121773933</v>
+        <v>0.88591405179399874</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.88370531615195891</v>
+        <v>0.88638954641851297</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.88265796697432553</v>
+        <v>0.883882791533944</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.87894986891238869</v>
+        <v>0.88017455765068453</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.87784094883624397</v>
+        <v>0.87906559994163769</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.99033348547995703</v>
+        <v>0.99165820521952797</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.98321636833964488</v>
+        <v>0.98302518988773613</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.98181787707295132</v>
+        <v>0.98162664797451915</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.98055336903038437</v>
+        <v>0.98036213143401185</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.96246653022030748</v>
+        <v>0.94888902894661986</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.94944456620068396</v>
+        <v>0.93586594919691901</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.94298739129416931</v>
+        <v>0.92940857360521212</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.91127895329776654</v>
+        <v>0.90847455144818423</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.90642839778002404</v>
+        <v>0.90362328266686176</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.88494240169752181</v>
+        <v>0.88213491717779324</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.86966621837489244</v>
+        <v>0.8668575595840462</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.86309483043655888</v>
+        <v>0.86028580840800328</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.85544030531116777</v>
+        <v>0.85263071198664098</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.85376095668930319</v>
+        <v>0.85095125237863645</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.85324094902575842</v>
+        <v>0.8504312095656249</v>
       </c>
     </row>
   </sheetData>
